--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2248824.334713719</v>
+        <v>2246261.693988593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287935</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717224</v>
+        <v>430763.7823717236</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>295.1038939948116</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.25292425643923</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1609600883624</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>170.503548177986</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>378.8250228382216</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37.83808333974875</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>101.6123617732491</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>76.80462337977876</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>23.89579629161697</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.3384883584625</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>20.19430196170344</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>87.56163230992638</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440895</v>
+        <v>81.37259901118932</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>105.3798824585354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.94601265677014</v>
+        <v>179.4000024487212</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>131.6267707433244</v>
+        <v>133.3125405967877</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>83.07736723265378</v>
       </c>
       <c r="F28" t="n">
-        <v>34.47254797867635</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>105.3798824585354</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>141.1752474211312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>23.94516103140406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>13.85794957155425</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417095</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8432760127576</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868854</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>89.97676987682362</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238344</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>64.44601915223792</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>55.91958182404442</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3791,7 +3791,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374728</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>116.475384768022</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.37259901119249</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>83.55410938283568</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.762447262064999</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1116.950579244872</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.689751284806</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.550419308994</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.10866026757</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>984.1461433271581</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>625.8804447204077</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>240.0921921221635</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>932.2014054355411</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>177.4506358968852</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>170.5051351476818</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>156.5817310862727</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2564.539973892373</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2310.778188530465</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1979.715301186894</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.94664591678</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>932.2014054355411</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5084,7 +5084,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>302.0892292003537</v>
+        <v>266.763024966447</v>
       </c>
       <c r="L12" t="n">
-        <v>792.8215620441057</v>
+        <v>757.4953578101982</v>
       </c>
       <c r="M12" t="n">
-        <v>1384.839916296234</v>
+        <v>1349.513712062326</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.935879695571</v>
+        <v>1971.609675461662</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>746.1252502501707</v>
+        <v>702.6869810358123</v>
       </c>
       <c r="C13" t="n">
-        <v>577.1890673222638</v>
+        <v>533.7507981079054</v>
       </c>
       <c r="D13" t="n">
-        <v>427.072427909928</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E13" t="n">
-        <v>427.072427909928</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F13" t="n">
-        <v>427.072427909928</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G13" t="n">
-        <v>259.8582330845069</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9855161229373</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T13" t="n">
-        <v>2209.733717050079</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U13" t="n">
-        <v>1920.657503364806</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V13" t="n">
-        <v>1665.973015158919</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W13" t="n">
-        <v>1376.555845121958</v>
+        <v>1125.526309819384</v>
       </c>
       <c r="X13" t="n">
-        <v>1148.566294223941</v>
+        <v>1105.128025009582</v>
       </c>
       <c r="Y13" t="n">
-        <v>927.7737150804104</v>
+        <v>884.3354458660521</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5358,22 +5358,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>274.040400188367</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L15" t="n">
-        <v>764.7727330321189</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M15" t="n">
-        <v>1356.791087284247</v>
+        <v>915.089423558717</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284247</v>
+        <v>1537.185386958053</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>2084.061861958247</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149475964</v>
       </c>
       <c r="C16" t="n">
-        <v>474.5089667467489</v>
+        <v>326.1595320196895</v>
       </c>
       <c r="D16" t="n">
-        <v>324.3923273344132</v>
+        <v>176.0428926073538</v>
       </c>
       <c r="E16" t="n">
-        <v>176.4792337520201</v>
+        <v>176.0428926073538</v>
       </c>
       <c r="F16" t="n">
-        <v>176.4792337520201</v>
+        <v>176.0428926073538</v>
       </c>
       <c r="G16" t="n">
-        <v>176.4792337520201</v>
+        <v>176.0428926073538</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520201</v>
+        <v>176.0428926073538</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819384</v>
       </c>
       <c r="X16" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213663</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778362</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5592,25 +5592,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.755759562693</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.755759562693</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>2201.632234562888</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>495.0957149476028</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6513892319105</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5671,52 +5671,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5826,31 +5826,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034533</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K21" t="n">
-        <v>241.4963299034533</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L21" t="n">
-        <v>732.2286627472052</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M21" t="n">
-        <v>1324.247016999334</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="N21" t="n">
-        <v>1946.342980398671</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="O21" t="n">
-        <v>2493.219455398866</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.4047730538323</v>
+        <v>495.5320560922628</v>
       </c>
       <c r="C22" t="n">
-        <v>468.4685901259254</v>
+        <v>326.5958731643559</v>
       </c>
       <c r="D22" t="n">
-        <v>318.3519507135896</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="E22" t="n">
-        <v>318.3519507135896</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F22" t="n">
-        <v>318.3519507135896</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135896</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,40 +5975,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6023,7 +6023,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132384</v>
@@ -6032,7 +6032,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>732.2286627472052</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1324.247016999334</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N24" t="n">
-        <v>1946.342980398671</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>2493.219455398866</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599891011</v>
+        <v>714.774497233218</v>
       </c>
       <c r="C25" t="n">
-        <v>394.0188770611942</v>
+        <v>545.8383143053111</v>
       </c>
       <c r="D25" t="n">
-        <v>394.0188770611942</v>
+        <v>395.7216748929753</v>
       </c>
       <c r="E25" t="n">
-        <v>394.0188770611942</v>
+        <v>395.7216748929753</v>
       </c>
       <c r="F25" t="n">
-        <v>394.0188770611942</v>
+        <v>395.7216748929753</v>
       </c>
       <c r="G25" t="n">
-        <v>226.804682235773</v>
+        <v>228.5074800675542</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6145,52 +6145,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789009</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103736</v>
+        <v>1889.306750347853</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897849</v>
+        <v>1634.622262141966</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860888</v>
+        <v>1345.205092105005</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628709</v>
+        <v>1117.215541206988</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193408</v>
+        <v>896.4229620634577</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160683</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507206</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.29847123401</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151117</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
         <v>4202.751434297606</v>
@@ -6248,10 +6248,10 @@
         <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6297,34 +6297,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149664</v>
+        <v>163.4947075553185</v>
       </c>
       <c r="L27" t="n">
-        <v>915.0894235587184</v>
+        <v>654.2270403990698</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810847</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210184</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.2659052086724</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>509.3297222807655</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D28" t="n">
-        <v>359.2130828684298</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E28" t="n">
-        <v>211.2999892860366</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
-        <v>176.4792337520201</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2361.553154294199</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2141.87437200858</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1852.798158323307</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1598.11367011742</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1308.69650008046</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>1080.706949182442</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>859.9143700389121</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149663</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="L30" t="n">
-        <v>915.0894235587183</v>
+        <v>526.9340838249515</v>
       </c>
       <c r="M30" t="n">
-        <v>1507.107777810847</v>
+        <v>1118.952438077079</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.203741210184</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476028</v>
+        <v>1012.502435882578</v>
       </c>
       <c r="C31" t="n">
-        <v>388.6513892319105</v>
+        <v>843.5662529546713</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>693.4496135423356</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>545.5365199599424</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6619,52 +6619,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.52630981939</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213727</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778425</v>
+        <v>1194.150900712818</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
         <v>3654.445485610258</v>
@@ -6777,28 +6777,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149658</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L33" t="n">
-        <v>915.089423558717</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.107777810845</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.203741210181</v>
+        <v>1354.32462614654</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>1901.201101146735</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2320.784619572811</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2551.345893558057</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.9550599890988</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7680286442462</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6513892319105</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="F34" t="n">
-        <v>93.84834815160703</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6880,28 +6880,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831368</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890957</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284206</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685962</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
         <v>794.2588208963565</v>
@@ -6929,10 +6929,10 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
         <v>373.3442236507199</v>
@@ -6941,46 +6941,46 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402496</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132382</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871302</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.86103389549</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160701</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>584.5806809953583</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.599035247486</v>
+        <v>1016.375444967093</v>
       </c>
       <c r="N36" t="n">
-        <v>1798.694998646822</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.571473647016</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P36" t="n">
-        <v>2345.571473647016</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.9184063975742</v>
+        <v>495.095714947596</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9822234696674</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8655840573316</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9524904749385</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411572</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117208</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948588</v>
+        <v>820.221016094855</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931021</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946051</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782255</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S37" t="n">
-        <v>2429.412499335694</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.526873197488</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.450659512215</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.766171306322</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.349001269361</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.359450371344</v>
+        <v>897.5367589213658</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.566871227814</v>
+        <v>676.7441797778357</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160701</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160701</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L39" t="n">
-        <v>584.5806809953583</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.599035247486</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N39" t="n">
-        <v>1798.694998646822</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.571473647016</v>
+        <v>2202.671267137407</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149475996</v>
+        <v>728.0284588996639</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196927</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196927</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>158.9453371942716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946051</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062234</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856347</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1358.459053771451</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213695</v>
+        <v>1130.469502873434</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778393</v>
+        <v>909.6769237299036</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7403,10 +7403,10 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
         <v>373.3442236507199</v>
@@ -7433,28 +7433,28 @@
         <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160701</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L42" t="n">
-        <v>915.089423558717</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M42" t="n">
-        <v>1507.107777810845</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.203741210181</v>
+        <v>1685.872401284422</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>2232.748876284616</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149475996</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196927</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D43" t="n">
-        <v>176.042892607357</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E43" t="n">
-        <v>176.042892607357</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F43" t="n">
-        <v>176.042892607357</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G43" t="n">
-        <v>176.042892607357</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.042892607357</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
         <v>1239.450608139318</v>
@@ -7582,16 +7582,16 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
         <v>2178.382964033126</v>
@@ -7600,19 +7600,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062234</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856347</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
         <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213695</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778393</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
         <v>1591.032978284208</v>
@@ -7634,16 +7634,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
         <v>373.3442236507199</v>
@@ -7661,37 +7661,37 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160701</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160701</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L45" t="n">
-        <v>142.6767696327857</v>
+        <v>960.0078027834585</v>
       </c>
       <c r="M45" t="n">
-        <v>734.6951238849133</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="N45" t="n">
-        <v>1356.791087284249</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O45" t="n">
-        <v>1903.667562284444</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.25108071052</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149475996</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1595320196927</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1595320196927</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E46" t="n">
-        <v>178.2464384372996</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F46" t="n">
-        <v>178.2464384372996</v>
+        <v>179.2695845217828</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160701</v>
+        <v>179.2695845217828</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
         <v>1239.450608139318</v>
@@ -7819,16 +7819,16 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
         <v>2178.382964033126</v>
@@ -7837,19 +7837,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062234</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.943479856347</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
         <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>897.5367589213695</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778393</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.31264782908374</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782908363</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782908997</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.31264782908997</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782908997</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>51.31264782909216</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>57.90878045279198</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108645</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>205.5153534273337</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>79.68518878870145</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.4319777332197106</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>43.23559055967699</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>59.081390780761</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.8859675251672</v>
+        <v>0.4319777332160584</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.82721904862953</v>
+        <v>7.141449195166217</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.35659541391539</v>
       </c>
       <c r="F28" t="n">
-        <v>110.9485000442549</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>61.86693864009247</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.245800601800028</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>143.3016600672238</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>131.563098451377</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>64.04844901174239</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>127.5052245859382</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>76.00797063971599</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>81.80457674440903</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>230.6034165125466</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>50.77143633060584</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4319777332165415</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>81.98794349433125</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>137.6915425298889</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831834.4444858688</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>831834.4444858688</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.444485869</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>584845.1584109553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>584845.1584109556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>584845.158410955</v>
+      </c>
+      <c r="H2" t="n">
+        <v>584845.1584109551</v>
+      </c>
+      <c r="I2" t="n">
         <v>584845.1584109555</v>
-      </c>
-      <c r="F2" t="n">
-        <v>584845.1584109553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>584845.1584109553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>584845.1584109555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>584845.1584109556</v>
       </c>
       <c r="J2" t="n">
         <v>584845.1584109555</v>
       </c>
       <c r="K2" t="n">
-        <v>584845.1584109557</v>
+        <v>584845.158410955</v>
       </c>
       <c r="L2" t="n">
+        <v>584845.1584109556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>584845.1584109553</v>
+      </c>
+      <c r="N2" t="n">
+        <v>584845.1584109555</v>
+      </c>
+      <c r="O2" t="n">
         <v>584845.1584109552</v>
       </c>
-      <c r="M2" t="n">
-        <v>584845.1584109555</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>584845.1584109551</v>
-      </c>
-      <c r="O2" t="n">
-        <v>584845.158410955</v>
-      </c>
-      <c r="P2" t="n">
-        <v>584845.1584109553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545134</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901371</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855006</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855005</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855029</v>
+        <v>5781.971894855161</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855006</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855014</v>
+        <v>5781.971894855129</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855013</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855005</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855118</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855102</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855102</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855166</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855133</v>
+        <v>5781.971894855114</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278636.1800540806</v>
+        <v>-278636.1800540808</v>
       </c>
       <c r="C6" t="n">
-        <v>311331.6991604641</v>
+        <v>311331.6991604638</v>
       </c>
       <c r="D6" t="n">
         <v>311331.6991604639</v>
       </c>
       <c r="E6" t="n">
-        <v>-458376.5183956515</v>
+        <v>-458412.4153775148</v>
       </c>
       <c r="F6" t="n">
-        <v>478133.1470588617</v>
+        <v>478097.2500769976</v>
       </c>
       <c r="G6" t="n">
-        <v>478133.1470588617</v>
+        <v>478097.250076997</v>
       </c>
       <c r="H6" t="n">
-        <v>478133.1470588619</v>
+        <v>478097.2500769972</v>
       </c>
       <c r="I6" t="n">
-        <v>478133.147058862</v>
+        <v>478097.2500769975</v>
       </c>
       <c r="J6" t="n">
-        <v>301709.9278662688</v>
+        <v>301674.0308844046</v>
       </c>
       <c r="K6" t="n">
-        <v>478133.1470588621</v>
+        <v>478097.250076997</v>
       </c>
       <c r="L6" t="n">
-        <v>478133.1470588627</v>
+        <v>478097.2500769976</v>
       </c>
       <c r="M6" t="n">
-        <v>353825.9356687247</v>
+        <v>353790.0386868602</v>
       </c>
       <c r="N6" t="n">
-        <v>478133.1470588614</v>
+        <v>478097.2500769975</v>
       </c>
       <c r="O6" t="n">
-        <v>478133.1470588613</v>
+        <v>478097.2500769973</v>
       </c>
       <c r="P6" t="n">
-        <v>478133.1470588617</v>
+        <v>478097.2500769972</v>
       </c>
     </row>
   </sheetData>
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716386</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844993005</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.178203989441209e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.817079140532</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>70.16899777619591</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.168123766492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822863</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>236.3724975637255</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>7.412915817831959</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>118.3328055020464</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.518585629358</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>222.310410991108</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>139.643696977879</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>80.49006577330462</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28293,10 +28293,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28521,10 +28521,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.450898743215172e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.110447083159188e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-2.443332518818138e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-4.1269378440394e-12</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.110447083159188e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>348.1857632660223</v>
+        <v>312.5027286863186</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>319.853612748864</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.796143198246</v>
+        <v>375.5796788812718</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>189.4642825742353</v>
       </c>
       <c r="P18" t="n">
-        <v>489.7119024980454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426213</v>
+        <v>506.4291208739053</v>
       </c>
       <c r="P21" t="n">
-        <v>195.1793561990784</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>195.1793561990784</v>
+        <v>145.1594109644139</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>208.191296957906</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O27" t="n">
-        <v>571.4938338238205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745732</v>
+        <v>574.9651909908054</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>571.493833823821</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>148.1708788505385</v>
       </c>
       <c r="S33" t="n">
         <v>54.2575834086216</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>672.4030374050432</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.3260983776882</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
         <v>54.2575834086216</v>
@@ -33968,13 +33968,13 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745724</v>
@@ -33983,19 +33983,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>344.3187317059969</v>
+        <v>220.0891643226154</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
         <v>54.2575834086216</v>
@@ -34205,10 +34205,10 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
         <v>471.6886536848224</v>
@@ -34217,22 +34217,22 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>189.7077409415963</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
         <v>54.2575834086216</v>
@@ -34442,22 +34442,22 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>187.8760176396507</v>
+        <v>529.4268017416159</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426204</v>
@@ -34466,10 +34466,10 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
         <v>54.2575834086216</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>210.3443242916633</v>
+        <v>174.6612897119596</v>
       </c>
       <c r="L12" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134837</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>182.012173774505</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839158</v>
+        <v>241.6052714669416</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606339</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931324</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="P18" t="n">
-        <v>355.7374950837152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020592</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N20" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981769</v>
+        <v>363.8328764294609</v>
       </c>
       <c r="P21" t="n">
-        <v>61.20494878474815</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020592</v>
+        <v>779.60008413115</v>
       </c>
       <c r="N23" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.5673812694955</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>61.20494878474815</v>
+        <v>11.18500355008366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311428</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>70.34985798354698</v>
       </c>
       <c r="L27" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O27" t="n">
-        <v>428.897589379376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.689225094699</v>
+        <v>436.4108112109312</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>428.8975893793765</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K32" t="n">
         <v>474.3741250380625</v>
@@ -37081,7 +37081,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
         <v>553.8443926134828</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>2.491374886574594</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M35" t="n">
         <v>728.287436302058</v>
@@ -37327,7 +37327,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>541.0613253217099</v>
       </c>
       <c r="O36" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211065673</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380625</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946982</v>
@@ -37631,19 +37631,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>210.3443242916667</v>
+        <v>86.11475690828513</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883393</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
@@ -37801,7 +37801,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>178.6700086136741</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
         <v>333.8472147104634</v>
@@ -37865,22 +37865,22 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>55.73333352726601</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>741.0722806161006</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
         <v>553.8443926134828</v>
@@ -38038,7 +38038,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>49.3216378597765</v>
+        <v>390.8724219617417</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>552.400479798176</v>
@@ -38114,10 +38114,10 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
